--- a/biology/Botanique/Ardisia/Ardisia.xlsx
+++ b/biology/Botanique/Ardisia/Ardisia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardisia est un genre de plantes à fleurs de la famille des Primulaceae, qui se distribue principalement dans les zones tropicales d'Amérique, d'Asie et d'Australie, ainsi que dans les îles du Pacifique.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du latin Ardis, pointe, dard, flèche, en référence à la forme des anthères en forme de point de flèche[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du latin Ardis, pointe, dard, flèche, en référence à la forme des anthères en forme de point de flèche.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[4] et en classification phylogénétique APG II (2003)[5], ce genre était assigné à la famille des Myrsinaceae.
-La classification phylogénétique APG III (2009)[6] a finalement classé le genre dans les Primulaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) et en classification phylogénétique APG II (2003), ce genre était assigné à la famille des Myrsinaceae.
+La classification phylogénétique APG III (2009) a finalement classé le genre dans les Primulaceae.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (17 novembre 2017)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (17 novembre 2017) :
 Ardisia aberrans (E.Walker) C.T.Wu &amp; C.Chen
 Ardisia aciphylla Pit.
 Ardisia acutiloba Mez
@@ -1367,7 +1385,7 @@
 Ardisia zenkeri Gilg
 Ardisia zeylanica C.B.Clarke
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (17 novembre 2017)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 novembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Ardisia abanii B.C. Stone
 Ardisia aberrans (E. Walker) C.Y. Wu &amp; C. Chen
 Ardisia aciphylla Pit.
@@ -1720,7 +1738,7 @@
 Ardisia dunlapiana P.H. Allen
 Ardisia durifolia Kunth
 Ardisia duripetala (Lundell) Pipoly &amp; Ricketson
-Ard</t>
+Ardisia d</t>
         </is>
       </c>
     </row>
